--- a/4.系统功能测试/Timeline系统功能测试计划.xlsx
+++ b/4.系统功能测试/Timeline系统功能测试计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="9855" tabRatio="521" firstSheet="3" activeTab="9"/>
+    <workbookView windowWidth="27840" windowHeight="9855" tabRatio="521" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="变更记录" sheetId="5" r:id="rId1"/>
@@ -410,7 +410,7 @@
     <t>Timeline_ST_TD007_TC002</t>
   </si>
   <si>
-    <t>备注：使用的自动化脚本仍是Timeline_ST_TD003_TC002和Timeline_ST_TD003_TC003中的脚本</t>
+    <t>备注：使用的自动化脚本仍是Timeline_ST_TD002_TC002和Timeline_ST_TD002_TC003中的脚本</t>
   </si>
   <si>
     <t>测试功能</t>
@@ -577,22 +577,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,7 +607,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,33 +645,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,31 +665,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,19 +688,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,7 +754,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,7 +868,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,91 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,67 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,6 +1118,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1137,37 +1161,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,6 +1190,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1206,160 +1215,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1957,7 +1957,7 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -12079,8 +12079,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
